--- a/Barbie_Financiera_FASE_2/BF-0041/BF-0041 Escenarios y Casos de Prueba.xlsx
+++ b/Barbie_Financiera_FASE_2/BF-0041/BF-0041 Escenarios y Casos de Prueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmmel\Downloads\Proyecto-PDS-BarbieFinanciera\FASE 2\BF-0041\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmmel\Downloads\Proyecto-PDS-BarbieFinanciera\Barbie_Financiera_FASE_2\BF-0041\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72828123-6A1A-41A3-A6AF-8D40F846BF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1929AB-83FA-4CC7-8E28-004C533525EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="765" windowWidth="20640" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="2" r:id="rId1"/>
@@ -75,27 +75,6 @@
     <t>El usuario ha iniciado sesión en el sistema</t>
   </si>
   <si>
-    <t>CP001</t>
-  </si>
-  <si>
-    <t>CP002</t>
-  </si>
-  <si>
-    <t>CP004</t>
-  </si>
-  <si>
-    <t>CP005</t>
-  </si>
-  <si>
-    <t>CP006</t>
-  </si>
-  <si>
-    <t>CP007</t>
-  </si>
-  <si>
-    <t>CP003</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
@@ -282,6 +261,27 @@
   </si>
   <si>
     <t>El sistema debería permitir al usuario editar el monto en la categoría "Alimentación".</t>
+  </si>
+  <si>
+    <t>BF-0041CP001</t>
+  </si>
+  <si>
+    <t>BF-0041CP002</t>
+  </si>
+  <si>
+    <t>BF-0041CP003</t>
+  </si>
+  <si>
+    <t>BF-0041CP004</t>
+  </si>
+  <si>
+    <t>BF-0041CP005</t>
+  </si>
+  <si>
+    <t>BF-0041CP006</t>
+  </si>
+  <si>
+    <t>BF-0041CP007</t>
   </si>
 </sst>
 </file>
@@ -577,12 +577,84 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -592,83 +664,11 @@
     <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.36328125" defaultRowHeight="14" customHeight="1"/>
@@ -1883,164 +1883,164 @@
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="36.5" customHeight="1">
-      <c r="A2" s="44">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>29</v>
+      <c r="B2" s="34" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="44">
+      <c r="A3" s="38"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37">
         <f>C2+1</f>
         <v>2</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>13</v>
+      <c r="D3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:6" ht="16" customHeight="1">
-      <c r="A5" s="52">
+      <c r="A5" s="47">
         <v>2</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="33">
+      <c r="B5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="26">
         <v>3</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>18</v>
+      <c r="D5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="33">
+      <c r="A7" s="48"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="26">
         <v>4</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>28</v>
+      <c r="D7" s="50" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" hidden="1" customHeight="1">
+      <c r="A8" s="49"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="16" customHeight="1">
+      <c r="A9" s="32">
+        <v>3</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="25.5" hidden="1" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="16" customHeight="1">
-      <c r="A9" s="39">
-        <v>3</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="35">
+      <c r="C9" s="28">
         <v>5</v>
       </c>
-      <c r="D9" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>15</v>
+      <c r="D9" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" customHeight="1">
-      <c r="A10" s="40">
+      <c r="A10" s="33">
         <f t="shared" ref="A10:A13" si="0">A9+1</f>
         <v>4</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:6" ht="13.25" customHeight="1">
-      <c r="A11" s="29">
+      <c r="A11" s="24">
         <v>4</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="29">
+      <c r="B11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="24">
         <v>6</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>16</v>
+      <c r="D11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27.5" customHeight="1">
-      <c r="A12" s="29">
+      <c r="A12" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="54"/>
     </row>
     <row r="13" spans="1:6" ht="16">
-      <c r="A13" s="29">
+      <c r="A13" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="10">
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="41" customHeight="1">
@@ -2121,6 +2121,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C5:C6"/>
@@ -2137,13 +2144,6 @@
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2165,12 +2165,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="A6:H6"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.36328125" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.90625" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.6328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.6328125" style="2" customWidth="1"/>
@@ -2209,160 +2209,160 @@
     </row>
     <row r="2" spans="1:9" ht="87">
       <c r="A2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="139" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="H3" s="17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="101.5">
       <c r="A4" s="15" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="G4" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" ht="149.5" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="H5" s="17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="109" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29" customHeight="1">
       <c r="A7" s="56" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1">
@@ -2371,7 +2371,7 @@
       <c r="C8" s="55"/>
       <c r="D8" s="63"/>
       <c r="E8" s="22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F8" s="60"/>
       <c r="G8" s="55"/>
@@ -2383,7 +2383,7 @@
       <c r="C9" s="55"/>
       <c r="D9" s="63"/>
       <c r="E9" s="22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F9" s="60"/>
       <c r="G9" s="55"/>
@@ -2395,7 +2395,7 @@
       <c r="C10" s="55"/>
       <c r="D10" s="63"/>
       <c r="E10" s="23" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F10" s="61"/>
       <c r="G10" s="55"/>
@@ -2403,28 +2403,28 @@
     </row>
     <row r="11" spans="1:9" ht="57.5" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5">
@@ -2434,7 +2434,7 @@
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G12" s="55"/>
       <c r="H12" s="55"/>
@@ -2446,7 +2446,7 @@
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>

--- a/Barbie_Financiera_FASE_2/BF-0041/BF-0041 Escenarios y Casos de Prueba.xlsx
+++ b/Barbie_Financiera_FASE_2/BF-0041/BF-0041 Escenarios y Casos de Prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmmel\Downloads\Proyecto-PDS-BarbieFinanciera\Barbie_Financiera_FASE_2\BF-0041\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1929AB-83FA-4CC7-8E28-004C533525EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AAD272-D3DC-4CDC-BF66-5447C48AB4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>Criterios de Aceptación</t>
   </si>
@@ -282,6 +282,15 @@
   </si>
   <si>
     <t>BF-0041CP007</t>
+  </si>
+  <si>
+    <t>Defecto</t>
+  </si>
+  <si>
+    <t>BF-0041DE001</t>
+  </si>
+  <si>
+    <t>BF-0041DE002</t>
   </si>
 </sst>
 </file>
@@ -504,7 +513,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -514,9 +523,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -577,12 +583,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -625,12 +652,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -655,21 +676,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -696,6 +702,33 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1869,7 +1902,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.36328125" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" style="3" customWidth="1"/>
     <col min="2" max="2" width="38.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="64.90625" style="1" customWidth="1"/>
@@ -1879,167 +1912,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23" customHeight="1">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="36.5" customHeight="1">
-      <c r="A2" s="37">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="37">
+      <c r="A3" s="44"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="43">
         <f>C2+1</f>
         <v>2</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="23" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:6" ht="16" customHeight="1">
-      <c r="A5" s="47">
+      <c r="A5" s="51">
         <v>2</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="32">
         <v>3</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="26">
+      <c r="A7" s="52"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="32">
         <v>4</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25.5" hidden="1" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="8"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="16" customHeight="1">
-      <c r="A9" s="32">
+      <c r="A9" s="38">
         <v>3</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="34">
         <v>5</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="27" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" customHeight="1">
-      <c r="A10" s="33">
+      <c r="A10" s="39">
         <f t="shared" ref="A10:A13" si="0">A9+1</f>
         <v>4</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="52"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:6" ht="13.25" customHeight="1">
-      <c r="A11" s="24">
+      <c r="A11" s="28">
         <v>4</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="28">
         <v>6</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="30" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27.5" customHeight="1">
-      <c r="A12" s="24">
+      <c r="A12" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="54"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:6" ht="16">
-      <c r="A13" s="24">
+      <c r="A13" s="28">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="10">
+      <c r="B13" s="29"/>
+      <c r="C13" s="9">
         <v>7</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2049,7 +2082,7 @@
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="16" hidden="1" customHeight="1">
       <c r="A15"/>
@@ -2057,7 +2090,7 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15" s="13"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="12.5">
       <c r="A16"/>
@@ -2065,7 +2098,7 @@
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="12.5">
       <c r="A17"/>
@@ -2073,7 +2106,7 @@
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="12.5">
       <c r="A18"/>
@@ -2081,53 +2114,46 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="12.5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="14" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="14" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="14" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="14" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C5:C6"/>
@@ -2144,6 +2170,13 @@
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2162,10 +2195,10 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.36328125" defaultRowHeight="14" customHeight="1"/>
@@ -2182,274 +2215,291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="I1" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="87">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>12</v>
       </c>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" ht="139" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="1:9" ht="101.5">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I4"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" ht="149.5" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:9" ht="109" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>13</v>
       </c>
+      <c r="I6" s="16" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="29" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="54" t="s">
         <v>12</v>
       </c>
+      <c r="I7" s="66"/>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="22" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9" ht="29" customHeight="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="22" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9" ht="53" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="23" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="1:9" ht="57.5" customHeight="1">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="54" t="s">
         <v>13</v>
       </c>
+      <c r="I11" s="69" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.5">
-      <c r="A12" s="57"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="70"/>
     </row>
     <row r="13" spans="1:9" ht="15.5">
-      <c r="A13" s="57"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="71"/>
     </row>
     <row r="14" spans="1:9" ht="15.5">
       <c r="A14"/>
@@ -2512,7 +2562,9 @@
       <c r="H19"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I7:I10"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="E11:E13"/>

--- a/Barbie_Financiera_FASE_2/BF-0041/BF-0041 Escenarios y Casos de Prueba.xlsx
+++ b/Barbie_Financiera_FASE_2/BF-0041/BF-0041 Escenarios y Casos de Prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmmel\Downloads\Proyecto-PDS-BarbieFinanciera\Barbie_Financiera_FASE_2\BF-0041\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AAD272-D3DC-4CDC-BF66-5447C48AB4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE8DD02-4095-42C2-909B-723ED7634356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>Criterios de Aceptación</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>BF-0041DE002</t>
+  </si>
+  <si>
+    <t>Blocked</t>
   </si>
 </sst>
 </file>
@@ -583,6 +586,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -676,41 +688,41 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -719,22 +731,13 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
         <strike val="0"/>
@@ -756,6 +759,19 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1916,19 +1932,19 @@
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="36.5" customHeight="1">
-      <c r="A2" s="43">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4">
@@ -1942,57 +1958,57 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="43">
+      <c r="A3" s="47"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="46">
         <f>C2+1</f>
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="26" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="16" customHeight="1">
-      <c r="A5" s="51">
+      <c r="A5" s="54">
         <v>2</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="35">
         <v>3</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="28" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" customHeight="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="32">
+      <c r="A7" s="55"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="35">
         <v>4</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="28" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -2000,72 +2016,72 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="25.5" hidden="1" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="26"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="16" customHeight="1">
-      <c r="A9" s="38">
+      <c r="A9" s="41">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="37">
         <v>5</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" customHeight="1">
-      <c r="A10" s="39">
+      <c r="A10" s="42">
         <f t="shared" ref="A10:A13" si="0">A9+1</f>
         <v>4</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="13.25" customHeight="1">
-      <c r="A11" s="28">
+      <c r="A11" s="31">
         <v>4</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="31">
         <v>6</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="33" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27.5" customHeight="1">
-      <c r="A12" s="28">
+      <c r="A12" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:6" ht="16">
-      <c r="A13" s="28">
+      <c r="A13" s="31">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="9">
         <v>7</v>
       </c>
@@ -2195,7 +2211,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I11" sqref="I11:I13"/>
@@ -2268,7 +2284,7 @@
       <c r="H2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="63"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="139" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -2295,7 +2311,7 @@
       <c r="H3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:9" ht="101.5">
       <c r="A4" s="14" t="s">
@@ -2322,7 +2338,7 @@
       <c r="H4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="65"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="149.5" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2349,7 +2365,7 @@
       <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="109" customHeight="1">
       <c r="A6" s="14" t="s">
@@ -2381,125 +2397,125 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="29" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="65" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="66"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="62"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="67"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:9" ht="29" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="62"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="67"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="70"/>
     </row>
     <row r="10" spans="1:9" ht="53" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="62"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="68"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="71"/>
     </row>
     <row r="11" spans="1:9" ht="57.5" customHeight="1">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="69" t="s">
+      <c r="H11" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="66" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5">
-      <c r="A12" s="56"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="70"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9" ht="15.5">
-      <c r="A13" s="56"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="71"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="15.5">
       <c r="A14"/>
@@ -2569,6 +2585,8 @@
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="G7:G10"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="A11:A13"/>
@@ -2577,16 +2595,17 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H7:H10"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="G7:G10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
